--- a/Scrum_Log_Book.xlsx
+++ b/Scrum_Log_Book.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
   <si>
     <t>Kayen</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Wed</t>
+  </si>
+  <si>
+    <t>Not successful retrieving real time taxi availability data from https://data.gov.sg even after creating account. Switching to https://www.mytransport.sg to get taxi availability. Managed to get data from website but not successful to do it in GAE.</t>
   </si>
 </sst>
 </file>
@@ -99,7 +102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -122,17 +125,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,7 +757,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,382 +765,384 @@
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="40.7109375" customWidth="1"/>
+    <col min="5" max="8" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E2" s="3" t="s">
+    <row r="2" spans="3:8" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="1">
+    <row r="3" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="5">
         <v>42614</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>42615</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>42616</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>42617</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>42618</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>42619</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>42620</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>42621</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>42622</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>42623</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>42624</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>42625</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>42626</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>42627</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="4">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
         <v>42628</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>42629</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>42630</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>42631</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>42632</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>42633</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <v>42634</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>42635</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
         <v>42636</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <v>42637</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
         <v>42638</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="5">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="3">
         <v>42639</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <v>42640</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
         <v>42641</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
         <v>42642</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="4">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
         <v>42643</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scrum_Log_Book.xlsx
+++ b/Scrum_Log_Book.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiwagaki\Documents\Work\Admin\Learning &amp; Certificates\Coventry\Rapid Application Development\Assignment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takuya\Documents\Coventry\Rapid Application Development\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,9 @@
     <sheet name="ProductBacklog" sheetId="2" r:id="rId2"/>
     <sheet name="SprintBacklog" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
   <si>
     <t>Kayen</t>
   </si>
@@ -62,6 +65,14 @@
   </si>
   <si>
     <t>Not successful retrieving real time taxi availability data from https://data.gov.sg even after creating account. Switching to https://www.mytransport.sg to get taxi availability. Managed to get data from website but not successful to do it in GAE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Practicing Git. Linking local files to Github
+https://github.com/tiwagaki/rad_assignment2</t>
+  </si>
+  <si>
+    <t>Successfully getting and displaying JSON file (taxi locations) from https://data.gov.sg api.</t>
   </si>
 </sst>
 </file>
@@ -184,76 +195,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -498,7 +469,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F8F8F8"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -755,9 +726,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +776,9 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -817,7 +790,9 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/Scrum_Log_Book.xlsx
+++ b/Scrum_Log_Book.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>Kayen</t>
   </si>
@@ -72,7 +72,10 @@
 https://github.com/tiwagaki/rad_assignment2</t>
   </si>
   <si>
-    <t>Successfully getting and displaying JSON file (taxi locations) from https://data.gov.sg api.</t>
+    <t>JINJA2 template implemented. Current location is displayed via Geolocation api.</t>
+  </si>
+  <si>
+    <t>Successfully getting and displaying JSON file (taxi locations) from http://datamall2.mytransport.sg/.</t>
   </si>
 </sst>
 </file>
@@ -728,7 +731,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +794,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -804,7 +807,9 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/Scrum_Log_Book.xlsx
+++ b/Scrum_Log_Book.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takuya\Documents\Coventry\Rapid Application Development\Assignment2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17985" windowHeight="5175"/>
   </bookViews>
@@ -19,7 +14,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>Kayen</t>
   </si>
@@ -76,6 +71,66 @@
   </si>
   <si>
     <t>Successfully getting and displaying JSON file (taxi locations) from http://datamall2.mytransport.sg/.</t>
+  </si>
+  <si>
+    <t>Contribute to repository via Git</t>
+  </si>
+  <si>
+    <t>Learn Google App Engine code</t>
+  </si>
+  <si>
+    <t>ProuctBacklog</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Current Location</t>
+  </si>
+  <si>
+    <t>Pb_id</t>
+  </si>
+  <si>
+    <t>I want to see my current location on google map.</t>
+  </si>
+  <si>
+    <t>Taxi Location</t>
+  </si>
+  <si>
+    <t>I want to see nearby available taxis on google map</t>
+  </si>
+  <si>
+    <t>Delivery Date</t>
+  </si>
+  <si>
+    <t>Sb_id</t>
+  </si>
+  <si>
+    <t>SprintBacklog</t>
+  </si>
+  <si>
+    <t>TaxiAvailability API header</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Need to get API key and other header information</t>
+  </si>
+  <si>
+    <t>JINJA2</t>
+  </si>
+  <si>
+    <t>Use JINJA2 template for MVC framework</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>Implement current location in JavaScript in accordance with Google Map API</t>
   </si>
 </sst>
 </file>
@@ -410,7 +465,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
+      <xdr:rowOff>533400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="936282" cy="405432"/>
     <xdr:sp macro="" textlink="">
@@ -420,7 +475,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7991475"/>
+          <a:off x="0" y="13325475"/>
           <a:ext cx="936282" cy="405432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -507,7 +562,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,7 +597,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -719,7 +774,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -729,9 +784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,11 +861,15 @@
         <v>7</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
@@ -1133,26 +1192,193 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Scrum_Log_Book.xlsx
+++ b/Scrum_Log_Book.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiwagaki\Documents\Work\Admin\Learning &amp; Certificates\Coventry\Rapid Application Development\Assignment2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17985" windowHeight="5175"/>
   </bookViews>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>Kayen</t>
   </si>
@@ -67,9 +72,6 @@
 https://github.com/tiwagaki/rad_assignment2</t>
   </si>
   <si>
-    <t>JINJA2 template implemented. Current location is displayed via Geolocation api.</t>
-  </si>
-  <si>
     <t>Successfully getting and displaying JSON file (taxi locations) from http://datamall2.mytransport.sg/.</t>
   </si>
   <si>
@@ -131,6 +133,18 @@
   </si>
   <si>
     <t>Implement current location in JavaScript in accordance with Google Map API</t>
+  </si>
+  <si>
+    <t>No Activity due to class</t>
+  </si>
+  <si>
+    <t>Scrum meeting to share progress and to decide what to be done to complete Sprint 1.</t>
+  </si>
+  <si>
+    <t>JINJA2 template implemented. Current location is successfully displayed via Geolocation api.</t>
+  </si>
+  <si>
+    <t>Scrum meeting to share progress and to decide what to be done to complete Sprint 1. Research on displaying location on Google Map based on longitude and latitude.</t>
   </si>
 </sst>
 </file>
@@ -283,6 +297,74 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -527,7 +609,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F8F8F8"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -774,7 +856,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -785,8 +867,8 @@
   <dimension ref="C2:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +931,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -862,13 +944,13 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -880,7 +962,9 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -892,7 +976,9 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -904,7 +990,9 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -916,7 +1004,9 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1207,19 +1297,19 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -1227,10 +1317,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1248,10 +1338,10 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1302,22 +1392,22 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -1328,10 +1418,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
         <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1345,10 +1435,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1372,10 +1462,10 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Scrum_Log_Book.xlsx
+++ b/Scrum_Log_Book.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiwagaki\Documents\Work\Admin\Learning &amp; Certificates\Coventry\Rapid Application Development\Assignment2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17985" windowHeight="5175"/>
+    <workbookView xWindow="2625" yWindow="2460" windowWidth="17985" windowHeight="5175"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityLog" sheetId="1" r:id="rId1"/>
-    <sheet name="ProductBacklog" sheetId="2" r:id="rId2"/>
-    <sheet name="SprintBacklog" sheetId="3" r:id="rId3"/>
+    <sheet name="ProductBacklog" sheetId="4" r:id="rId2"/>
+    <sheet name="SprintBacklog" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>Kayen</t>
   </si>
@@ -114,21 +111,12 @@
     <t>SprintBacklog</t>
   </si>
   <si>
-    <t>TaxiAvailability API header</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Need to get API key and other header information</t>
-  </si>
-  <si>
     <t>JINJA2</t>
   </si>
   <si>
-    <t>Use JINJA2 template for MVC framework</t>
-  </si>
-  <si>
     <t>JavaScript</t>
   </si>
   <si>
@@ -145,6 +133,57 @@
   </si>
   <si>
     <t>Scrum meeting to share progress and to decide what to be done to complete Sprint 1. Research on displaying location on Google Map based on longitude and latitude.</t>
+  </si>
+  <si>
+    <t>closeout</t>
+  </si>
+  <si>
+    <t>development and testing</t>
+  </si>
+  <si>
+    <t>planning</t>
+  </si>
+  <si>
+    <t>project inception, monoitoring and key milestones</t>
+  </si>
+  <si>
+    <t>Implement and integrate basic code to display result</t>
+  </si>
+  <si>
+    <t>Test codes with google app engine python</t>
+  </si>
+  <si>
+    <t>Decide on getting available taxi location with myTransport web service</t>
+  </si>
+  <si>
+    <t>Tested raw data output from JSON example in HTML</t>
+  </si>
+  <si>
+    <t>Discuss a possible practical idea to implement with current user location donein Product Backlog 1</t>
+  </si>
+  <si>
+    <t>Based on previous researches</t>
+  </si>
+  <si>
+    <t>Use JINJA2 template for MVC framework for HTML file template</t>
+  </si>
+  <si>
+    <t>Decide on getting current user location with Google Map service</t>
+  </si>
+  <si>
+    <t>Choosing of selected choice of JSON examples</t>
+  </si>
+  <si>
+    <t>Request of web APIs from web service owner (Eg: Data gov, myTransport, Google Map, NEA)</t>
+  </si>
+  <si>
+    <t>Survey of websites that contain implemented web services function (Eg: Banks Locator, LTA Traffic Cam, Weather PSI)</t>
+  </si>
+  <si>
+    <t>Discuss on real world issues and development of beneficial applications to society</t>
+  </si>
+  <si>
+    <t>Research and understanding on free JSON/XML web service API</t>
   </si>
 </sst>
 </file>
@@ -297,74 +336,6 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -609,7 +580,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F8F8F8"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -856,7 +827,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -867,8 +838,8 @@
   <dimension ref="C2:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,7 +918,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>15</v>
@@ -963,7 +934,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -977,7 +948,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -991,7 +962,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -1005,7 +976,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -1285,7 +1256,7 @@
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,6 +1308,9 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
@@ -1374,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G7"/>
+  <dimension ref="B2:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,12 +1359,11 @@
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="107.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -1401,71 +1374,223 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
       <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
       <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
       <c r="C6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="E7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Scrum_Log_Book.xlsx
+++ b/Scrum_Log_Book.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takuya\Documents\Coventry\Rapid Application Development\Assignment2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2625" yWindow="2460" windowWidth="17985" windowHeight="5175"/>
   </bookViews>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>Kayen</t>
   </si>
@@ -184,6 +189,18 @@
   </si>
   <si>
     <t>Research and understanding on free JSON/XML web service API</t>
+  </si>
+  <si>
+    <t>No Activity due to work</t>
+  </si>
+  <si>
+    <t>Development to display taxi locations on google map.</t>
+  </si>
+  <si>
+    <t>Development to display taxi locations on google map. Facing difficulty to show current location and taxis on the same map, thus changed plan and trying to display current location and taxi locations on different maps.</t>
+  </si>
+  <si>
+    <t>Development to display user's current location and taxi locations. Managed to display those on different map.</t>
   </si>
 </sst>
 </file>
@@ -827,7 +844,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -838,8 +855,8 @@
   <dimension ref="C2:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,7 +1006,9 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1001,7 +1020,9 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1013,7 +1034,9 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1025,7 +1048,9 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/Scrum_Log_Book.xlsx
+++ b/Scrum_Log_Book.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="2460" windowWidth="17985" windowHeight="5175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18135" windowHeight="6930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityLog" sheetId="1" r:id="rId1"/>
@@ -31,19 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
-  <si>
-    <t>Kayen</t>
-  </si>
-  <si>
-    <t>Lincoln</t>
-  </si>
-  <si>
-    <t>Takuya</t>
-  </si>
-  <si>
-    <t>Vick</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="73">
   <si>
     <t>Thu</t>
   </si>
@@ -51,12 +39,6 @@
     <t>Fri</t>
   </si>
   <si>
-    <t>Sat</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
     <t>Mon</t>
   </si>
   <si>
@@ -64,9 +46,6 @@
   </si>
   <si>
     <t>Wed</t>
-  </si>
-  <si>
-    <t>Not successful retrieving real time taxi availability data from https://data.gov.sg even after creating account. Switching to https://www.mytransport.sg to get taxi availability. Managed to get data from website but not successful to do it in GAE.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -77,130 +56,308 @@
     <t>Successfully getting and displaying JSON file (taxi locations) from http://datamall2.mytransport.sg/.</t>
   </si>
   <si>
+    <t>Learn Google App Engine code</t>
+  </si>
+  <si>
+    <t>ProuctBacklog</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Current Location</t>
+  </si>
+  <si>
+    <t>I want to see my current location on google map.</t>
+  </si>
+  <si>
+    <t>Taxi Location</t>
+  </si>
+  <si>
+    <t>I want to see nearby available taxis on google map</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Scrum meeting to share progress and to decide what to be done to complete Sprint 1.</t>
+  </si>
+  <si>
+    <t>JINJA2 template implemented. Current location is successfully displayed via Geolocation api.</t>
+  </si>
+  <si>
+    <t>Scrum meeting to share progress and to decide what to be done to complete Sprint 1. Research on displaying location on Google Map based on longitude and latitude.</t>
+  </si>
+  <si>
+    <t>closeout</t>
+  </si>
+  <si>
+    <t>development and testing</t>
+  </si>
+  <si>
+    <t>planning</t>
+  </si>
+  <si>
+    <t>project inception, monoitoring and key milestones</t>
+  </si>
+  <si>
+    <t>Implement and integrate basic code to display result</t>
+  </si>
+  <si>
+    <t>Test codes with google app engine python</t>
+  </si>
+  <si>
+    <t>Tested raw data output from JSON example in HTML</t>
+  </si>
+  <si>
+    <t>Use JINJA2 template for MVC framework for HTML file template</t>
+  </si>
+  <si>
+    <t>Choosing of selected choice of JSON examples</t>
+  </si>
+  <si>
+    <t>Request of web APIs from web service owner (Eg: Data gov, myTransport, Google Map, NEA)</t>
+  </si>
+  <si>
+    <t>Research and understanding on free JSON/XML web service API</t>
+  </si>
+  <si>
+    <t>Reviewing of lecture notes on JSON and XML coding format</t>
+  </si>
+  <si>
+    <t>Researching on possible implementation ideas (Eg. Weather or Haze PSI)</t>
+  </si>
+  <si>
+    <t>Send request to NEA for APIs and Access https://www.nea.gov.sg/api/</t>
+  </si>
+  <si>
+    <t>Assist in documenting all workflow process into scrum logbook (Product &amp; Sprint Backlog)</t>
+  </si>
+  <si>
+    <t>Reviewing of requested APIs and understanding provided Developer's Guide</t>
+  </si>
+  <si>
+    <t>Create Git account and requested access to https://github.com/tiwagaki/rad_assignment2</t>
+  </si>
+  <si>
+    <t>Learn to use Git platform, contributed in pushing and pulling updated codes to share</t>
+  </si>
+  <si>
+    <t>Delivery Date</t>
+  </si>
+  <si>
+    <t>SB_ID</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>Development to display taxi locations on google map.</t>
+  </si>
+  <si>
+    <t>Development to display taxi locations on google map. Facing difficulty to show current location and taxis on the same map, thus changed plan and trying to display current location and taxi locations on different maps.</t>
+  </si>
+  <si>
+    <t>Development to display user's current location and taxi locations. Managed to display those on different map.</t>
+  </si>
+  <si>
+    <t>Implemented current location in JavaScript in accordance with Google Map API</t>
+  </si>
+  <si>
+    <t>Implement code with current user location done in Product Backlog 1</t>
+  </si>
+  <si>
+    <t>Lincoln &amp; Takuya</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Kayen &amp; Takuya</t>
+  </si>
+  <si>
+    <t>Lincoln &amp; Vick</t>
+  </si>
+  <si>
+    <t>Documentation on all development progress for Logbook</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
     <t>Contribute to repository via Git</t>
   </si>
   <si>
-    <t>Learn Google App Engine code</t>
-  </si>
-  <si>
-    <t>ProuctBacklog</t>
-  </si>
-  <si>
-    <t>User Story</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>Current Location</t>
-  </si>
-  <si>
-    <t>Pb_id</t>
-  </si>
-  <si>
-    <t>I want to see my current location on google map.</t>
-  </si>
-  <si>
-    <t>Taxi Location</t>
-  </si>
-  <si>
-    <t>I want to see nearby available taxis on google map</t>
-  </si>
-  <si>
-    <t>Delivery Date</t>
-  </si>
-  <si>
-    <t>Sb_id</t>
-  </si>
-  <si>
-    <t>SprintBacklog</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>JINJA2</t>
-  </si>
-  <si>
-    <t>JavaScript</t>
-  </si>
-  <si>
-    <t>Implement current location in JavaScript in accordance with Google Map API</t>
-  </si>
-  <si>
-    <t>No Activity due to class</t>
-  </si>
-  <si>
-    <t>Scrum meeting to share progress and to decide what to be done to complete Sprint 1.</t>
-  </si>
-  <si>
-    <t>JINJA2 template implemented. Current location is successfully displayed via Geolocation api.</t>
-  </si>
-  <si>
-    <t>Scrum meeting to share progress and to decide what to be done to complete Sprint 1. Research on displaying location on Google Map based on longitude and latitude.</t>
-  </si>
-  <si>
-    <t>closeout</t>
-  </si>
-  <si>
-    <t>development and testing</t>
-  </si>
-  <si>
-    <t>planning</t>
-  </si>
-  <si>
-    <t>project inception, monoitoring and key milestones</t>
-  </si>
-  <si>
-    <t>Implement and integrate basic code to display result</t>
-  </si>
-  <si>
-    <t>Test codes with google app engine python</t>
-  </si>
-  <si>
-    <t>Decide on getting available taxi location with myTransport web service</t>
-  </si>
-  <si>
-    <t>Tested raw data output from JSON example in HTML</t>
-  </si>
-  <si>
-    <t>Discuss a possible practical idea to implement with current user location donein Product Backlog 1</t>
-  </si>
-  <si>
-    <t>Based on previous researches</t>
-  </si>
-  <si>
-    <t>Use JINJA2 template for MVC framework for HTML file template</t>
-  </si>
-  <si>
-    <t>Decide on getting current user location with Google Map service</t>
-  </si>
-  <si>
-    <t>Choosing of selected choice of JSON examples</t>
-  </si>
-  <si>
-    <t>Request of web APIs from web service owner (Eg: Data gov, myTransport, Google Map, NEA)</t>
-  </si>
-  <si>
-    <t>Survey of websites that contain implemented web services function (Eg: Banks Locator, LTA Traffic Cam, Weather PSI)</t>
-  </si>
-  <si>
-    <t>Discuss on real world issues and development of beneficial applications to society</t>
-  </si>
-  <si>
-    <t>Research and understanding on free JSON/XML web service API</t>
-  </si>
-  <si>
-    <t>No Activity due to work</t>
-  </si>
-  <si>
-    <t>Development to display taxi locations on google map.</t>
-  </si>
-  <si>
-    <t>Development to display taxi locations on google map. Facing difficulty to show current location and taxis on the same map, thus changed plan and trying to display current location and taxi locations on different maps.</t>
-  </si>
-  <si>
-    <t>Development to display user's current location and taxi locations. Managed to display those on different map.</t>
+    <t>No Activity</t>
+  </si>
+  <si>
+    <t>Distance Computation</t>
+  </si>
+  <si>
+    <t>I want to know the distance between current location and Taxi Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Scrum_Log_Book. Planning scrum meeting agenda </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Developer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Not successful retrieving real time taxi availability data from https://data.gov.sg even after creating account. Switching to https://www.mytransport.sg to get taxi availability. Managed to get data from website but not successful to do it in GAE.</t>
+    </r>
+  </si>
+  <si>
+    <t>Developer
+Reviewing of lecture notes on JSON and XML coding format</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Developer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Reviewing of lecture notes on JSON and XML coding format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Software Architecht</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Reviewing of lecture notes on JSON and XML coding format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scrum Master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Reviewing of lecture notes on JSON and XML coding format</t>
+    </r>
+  </si>
+  <si>
+    <t>Kayen (Developer -&gt; Developer)</t>
+  </si>
+  <si>
+    <t>Lincoln (Software Architect -&gt; UI Designer)</t>
+  </si>
+  <si>
+    <t>Takuya (Developer -&gt; Scrum Master)</t>
+  </si>
+  <si>
+    <t>Vick (Scrum Master -&gt; UI Designer)</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>UI Designer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scrum Master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+No Activity</t>
+    </r>
+  </si>
+  <si>
+    <t>PB_ID</t>
+  </si>
+  <si>
+    <t>I want the application to be reasonably formatted</t>
+  </si>
+  <si>
+    <t>UI Design - Format</t>
+  </si>
+  <si>
+    <t>UI Design - Colour</t>
+  </si>
+  <si>
+    <t>I want the application to be reasonably coloured</t>
   </si>
 </sst>
 </file>
@@ -210,7 +367,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +379,35 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -241,7 +427,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -301,11 +487,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -319,8 +517,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -371,13 +606,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>314324</xdr:rowOff>
+      <xdr:rowOff>314325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>103909</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>342899</xdr:rowOff>
+      <xdr:rowOff>121228</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -386,8 +621,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="314325" y="885824"/>
-          <a:ext cx="333375" cy="7096125"/>
+          <a:off x="314325" y="712643"/>
+          <a:ext cx="395720" cy="8639176"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -425,13 +660,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:rowOff>103909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
+      <xdr:colOff>17319</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -440,8 +675,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304800" y="8429625"/>
-          <a:ext cx="333375" cy="7096125"/>
+          <a:off x="304800" y="10217727"/>
+          <a:ext cx="318655" cy="9611591"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -535,7 +770,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>533400</xdr:rowOff>
+      <xdr:rowOff>387724</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="936282" cy="405432"/>
     <xdr:sp macro="" textlink="">
@@ -545,7 +780,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="13325475"/>
+          <a:off x="0" y="9632577"/>
           <a:ext cx="936282" cy="405432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -586,6 +821,110 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2371725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4638675" y="57150"/>
+          <a:ext cx="3352800" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100"/>
+            <a:t>John overslept and is late for his work. He decided to take a cab there but due to the peak hour and bad weather condition, there are no available cabs on the road.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>236386</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>149431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="885824"/>
+          <a:ext cx="5884711" cy="2311607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -852,33 +1191,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H32"/>
+  <dimension ref="C2:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:8" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E2" s="8" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -886,40 +1225,52 @@
         <v>42614</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>42615</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>42616</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>13</v>
+      <c r="G5" s="20" t="s">
+        <v>6</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -928,17 +1279,17 @@
         <v>42617</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>33</v>
+        <v>51</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -946,40 +1297,52 @@
         <v>42618</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>42619</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>42620</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -988,12 +1351,14 @@
         <v>42621</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>34</v>
+      <c r="F10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -1002,11 +1367,13 @@
         <v>42622</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="4"/>
@@ -1016,12 +1383,12 @@
         <v>42623</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>53</v>
+      <c r="G12" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="H12" s="4"/>
     </row>
@@ -1030,12 +1397,12 @@
         <v>42624</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>54</v>
+      <c r="G13" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="H13" s="4"/>
     </row>
@@ -1044,12 +1411,14 @@
         <v>42625</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>55</v>
+      <c r="F14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="H14" s="4"/>
     </row>
@@ -1058,11 +1427,15 @@
         <v>42626</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1070,11 +1443,15 @@
         <v>42627</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1082,11 +1459,17 @@
         <v>42628</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1094,23 +1477,33 @@
         <v>42629</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="19" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>42630</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="G19" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1118,11 +1511,13 @@
         <v>42631</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1130,11 +1525,11 @@
         <v>42632</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1142,7 +1537,7 @@
         <v>42633</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1154,7 +1549,7 @@
         <v>42634</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1166,7 +1561,7 @@
         <v>42635</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1178,43 +1573,43 @@
         <v>42636</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="1">
+    <row r="26" spans="3:8" s="18" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="19">
         <v>42637</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="1">
+      <c r="D26" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="3:8" s="18" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="19">
         <v>42638</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="D27" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="3">
         <v>42639</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1226,7 +1621,7 @@
         <v>42640</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1238,7 +1633,7 @@
         <v>42641</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1250,7 +1645,7 @@
         <v>42642</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1262,363 +1657,459 @@
         <v>42643</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
+    <row r="33" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1" display="Developer's Guide"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F10"/>
+  <dimension ref="B6:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>2</v>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E10">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11">
+        <v>42622</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1.2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11">
+        <v>42629</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2.1</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="23">
+        <v>42643</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F61"/>
+  <dimension ref="B2:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="107.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="107.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="11">
+        <v>42615</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="11">
+        <v>42615</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11">
+        <v>42615</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C6" s="10">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="11">
+        <v>42615</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C7" s="10">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="11">
+        <v>42619</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C8" s="10">
+        <v>6</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="11">
+        <v>42620</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C9" s="10">
+        <v>7</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E9" s="11">
+        <v>42620</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C10" s="10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="11">
+        <v>42622</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C11" s="10">
+        <v>9</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="11">
+        <v>42622</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>10</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="11">
+        <v>42625</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>11</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="11">
+        <v>42627</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>12</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="11">
+        <v>42628</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="C16" s="10">
+        <v>13</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="11">
+        <v>42628</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="C17" s="10">
+        <v>14</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="11">
+        <v>42629</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="C18" s="10">
+        <v>15</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="11">
+        <v>42629</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="13">
+        <v>2.1</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>16</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>17</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E59" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E60" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E61" t="s">
-        <v>35</v>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Scrum_Log_Book.xlsx
+++ b/Scrum_Log_Book.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takuya\Documents\Coventry\Rapid Application Development\Assignment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiwagaki\Documents\Work\Admin\Learning &amp; Certificates\Coventry\Rapid Application Development\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18135" windowHeight="6930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18135" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityLog" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
   <si>
     <t>Thu</t>
   </si>
@@ -359,6 +359,30 @@
   <si>
     <t>I want the application to be reasonably coloured</t>
   </si>
+  <si>
+    <t>Map Unification</t>
+  </si>
+  <si>
+    <t>Scrum meeting for progress reporting and to agree with product backlog and sprint backlog for sprint2. Document updated and agreed on demonstration of progress on 22nd.</t>
+  </si>
+  <si>
+    <t>I want to see the application to display only one map</t>
+  </si>
+  <si>
+    <t>To demonstrate prototype UI design (format) on 22nd September</t>
+  </si>
+  <si>
+    <t>To demonstrate prototype UI design (Colour) on 22nd September</t>
+  </si>
+  <si>
+    <t>To demonstrate progress of Map Unification on 22nd September</t>
+  </si>
+  <si>
+    <t>To demonstrate progress of Distance Computation (without unit conversion) on 22nd September</t>
+  </si>
+  <si>
+    <t>Kayen</t>
+  </si>
 </sst>
 </file>
 
@@ -367,7 +391,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,13 +417,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -533,7 +550,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -548,11 +564,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -588,6 +605,74 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -936,7 +1021,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F8F8F8"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1193,9 +1278,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,7 +1318,7 @@
       <c r="F3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>56</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -1253,7 +1338,7 @@
       <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -1269,7 +1354,7 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="4"/>
@@ -1285,7 +1370,7 @@
       <c r="F6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -1305,7 +1390,7 @@
       <c r="F7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -1323,7 +1408,7 @@
       <c r="F8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -1341,7 +1426,7 @@
       <c r="F9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>52</v>
       </c>
       <c r="H9" s="4"/>
@@ -1357,7 +1442,7 @@
       <c r="F10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="4"/>
@@ -1373,7 +1458,7 @@
       <c r="F11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="4"/>
@@ -1387,7 +1472,7 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="4"/>
@@ -1401,7 +1486,7 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="4"/>
@@ -1417,7 +1502,7 @@
       <c r="F14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="4"/>
@@ -1479,16 +1564,16 @@
       <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="22" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1501,7 +1586,7 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H19" s="4"/>
@@ -1527,10 +1612,18 @@
       <c r="D21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="4"/>
+      <c r="E21" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="22" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
@@ -1580,29 +1673,29 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="3:8" s="18" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="19">
+    <row r="26" spans="3:8" s="17" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="18">
         <v>42637</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" spans="3:8" s="18" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="19">
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="3:8" s="17" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="18">
         <v>42638</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="3">
@@ -1681,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:E11"/>
+  <dimension ref="B6:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,35 +1834,55 @@
       <c r="B9">
         <v>2.1</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18">
+      <c r="E9" s="24">
+        <v>42643</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="23" t="s">
         <v>72</v>
+      </c>
+      <c r="E10" s="24">
+        <v>42643</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="24">
+        <v>42643</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2.4</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D12" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E12" s="24">
         <v>42643</v>
       </c>
     </row>
@@ -1785,7 +1898,7 @@
   <dimension ref="B2:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,13 +2193,72 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>2.1</v>
       </c>
       <c r="C20" s="10">
-        <v>1</v>
-      </c>
-      <c r="F20" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="21">
+        <v>42635</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C21" s="10">
+        <v>16</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="21">
+        <v>42635</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C22" s="10">
+        <v>17</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="21">
+        <v>42635</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="C23" s="10">
+        <v>18</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="21">
+        <v>42635</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" t="s">

--- a/Scrum_Log_Book.xlsx
+++ b/Scrum_Log_Book.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="89">
   <si>
     <t>Thu</t>
   </si>
@@ -372,9 +372,6 @@
     <t>To demonstrate prototype UI design (format) on 22nd September</t>
   </si>
   <si>
-    <t>To demonstrate prototype UI design (Colour) on 22nd September</t>
-  </si>
-  <si>
     <t>To demonstrate progress of Map Unification on 22nd September</t>
   </si>
   <si>
@@ -382,6 +379,33 @@
   </si>
   <si>
     <t>Kayen</t>
+  </si>
+  <si>
+    <t>Scrum meeting for progress reporting and to agree with product backlog and sprint backlog for sprint2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrum meeting for progress reporting and show latest UI design. Due to technical difficulty, postponed UI design demo date. Agreed with finishing up all the tasks by end of this week. </t>
+  </si>
+  <si>
+    <t>To demonstrate prototype UI design (colour) on 22nd September</t>
+  </si>
+  <si>
+    <t>Scrum meeting for progress reporting and show latest UI design. UI design was demonstrated but not integrated. Agreed with finishing up all the tasks by end of this week. Sprint backlog updated.</t>
+  </si>
+  <si>
+    <t>To demonstrate Distance Computation (without unit conversion) by noon on 25th September</t>
+  </si>
+  <si>
+    <t>To demonstrate integrated UI design (format) by end of 24th September</t>
+  </si>
+  <si>
+    <t>To demonstrate integrated UI design (colour) by end of 24th September</t>
+  </si>
+  <si>
+    <t>To integrate code and UI design then upload relevant files to Github by end of 25th September</t>
+  </si>
+  <si>
+    <t>--</t>
   </si>
 </sst>
 </file>
@@ -430,7 +454,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,6 +464,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,7 +550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -570,6 +600,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1279,8 +1317,8 @@
   <dimension ref="C2:H37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,16 +1651,16 @@
         <v>2</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>74</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1634,7 +1672,9 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1646,7 +1686,9 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="G23" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1656,10 +1698,18 @@
       <c r="D24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="25" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
@@ -1777,7 +1827,7 @@
   <dimension ref="B6:E12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,10 +1945,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F63"/>
+  <dimension ref="B2:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,27 +2131,37 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="B12" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>10</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="11">
+        <v>42625</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <v>1.2</v>
       </c>
       <c r="C13" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E13" s="11">
-        <v>42625</v>
+        <v>42627</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -2109,33 +2169,33 @@
         <v>1.2</v>
       </c>
       <c r="C14" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E14" s="11">
-        <v>42627</v>
+        <v>42628</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <v>1.2</v>
       </c>
       <c r="C15" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="11">
         <v>42628</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2143,64 +2203,68 @@
         <v>1.2</v>
       </c>
       <c r="C16" s="10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E16" s="11">
-        <v>42628</v>
+        <v>42629</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>1.2</v>
       </c>
       <c r="C17" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E17" s="11">
         <v>42629</v>
       </c>
       <c r="F17" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>15</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="21">
+        <v>42635</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C18" s="10">
-        <v>15</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="11">
-        <v>42629</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C20" s="10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E20" s="21">
         <v>42635</v>
@@ -2211,10 +2275,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C21" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>77</v>
@@ -2223,15 +2287,15 @@
         <v>42635</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="C22" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>78</v>
@@ -2240,43 +2304,94 @@
         <v>42635</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>19</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="21">
+        <v>42637</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C24" s="10">
+        <v>20</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="21">
+        <v>42637</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="12">
         <v>2.4</v>
       </c>
-      <c r="C23" s="10">
-        <v>18</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="C25" s="10">
+        <v>21</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="21">
+        <v>42638</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="21">
-        <v>42635</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>80</v>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="10">
+        <v>22</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="21">
+        <v>42638</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Scrum_Log_Book.xlsx
+++ b/Scrum_Log_Book.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiwagaki\Documents\Work\Admin\Learning &amp; Certificates\Coventry\Rapid Application Development\Assignment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takuya\Documents\Coventry\Rapid Application Development\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="97">
   <si>
     <t>Thu</t>
   </si>
@@ -407,6 +407,30 @@
   <si>
     <t>--</t>
   </si>
+  <si>
+    <t>Plot and discuss on what and how the interface will be like, providing shortcut links to all resources.</t>
+  </si>
+  <si>
+    <t>Work with Vick to create interfaces with basic HTML code and learn to merge codes together with current application.</t>
+  </si>
+  <si>
+    <t>Sending of the final project to Scrum Master, Takuya, for an update and acknowledgement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study HTML codes provided by Vick and integrate into Google App Engine, adjusting variables and template folders. Finalizing UI Design and small touch up on certain areas, including of Legend signs for easier understanding for the user. </t>
+  </si>
+  <si>
+    <t>Finalising application and deployed to production environment.</t>
+  </si>
+  <si>
+    <t>Applying for API key to make it available online. Updating final code into Github.</t>
+  </si>
+  <si>
+    <t>Review UI design.</t>
+  </si>
+  <si>
+    <t>Scrum meeting to wrap up this project within the current week. Adjust and finalise UI design format. Try to add computation logic between current location and taxi locations but not successful.</t>
+  </si>
 </sst>
 </file>
 
@@ -415,7 +439,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,8 +477,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +501,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -564,22 +601,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -594,19 +616,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -643,74 +705,6 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -788,7 +782,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>17319</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -798,8 +792,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304800" y="10217727"/>
-          <a:ext cx="318655" cy="9611591"/>
+          <a:off x="304800" y="13775085"/>
+          <a:ext cx="396078" cy="11404533"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1059,7 +1053,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F8F8F8"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1317,16 +1311,16 @@
   <dimension ref="C2:H37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:8" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1353,10 +1347,10 @@
       <c r="E3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="15" t="s">
         <v>56</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -1373,10 +1367,10 @@
       <c r="E4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -1391,8 +1385,10 @@
         <v>49</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="4"/>
@@ -1405,10 +1401,10 @@
         <v>50</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -1425,10 +1421,10 @@
       <c r="E7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="14" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -1443,10 +1439,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="14" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -1461,10 +1457,10 @@
         <v>4</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="14" t="s">
         <v>52</v>
       </c>
       <c r="H9" s="4"/>
@@ -1477,10 +1473,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="14" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="4"/>
@@ -1493,10 +1489,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="14" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="4"/>
@@ -1509,8 +1505,10 @@
         <v>49</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="4"/>
@@ -1523,8 +1521,10 @@
         <v>50</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="19" t="s">
+      <c r="F13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="4"/>
@@ -1537,10 +1537,10 @@
         <v>2</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="14" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="4"/>
@@ -1553,7 +1553,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="11" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1569,7 +1569,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="11" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -1587,7 +1587,7 @@
       <c r="E17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="11" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -1602,16 +1602,16 @@
       <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1623,8 +1623,10 @@
         <v>49</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>52</v>
       </c>
       <c r="H19" s="4"/>
@@ -1637,7 +1639,9 @@
         <v>50</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="G20" s="4" t="s">
         <v>55</v>
       </c>
@@ -1650,16 +1654,16 @@
       <c r="D21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="14" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1671,8 +1675,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="19" t="s">
+      <c r="F22" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>52</v>
       </c>
       <c r="H22" s="4"/>
@@ -1685,8 +1691,10 @@
         <v>4</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="19" t="s">
+      <c r="F23" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>52</v>
       </c>
       <c r="H23" s="4"/>
@@ -1701,10 +1709,10 @@
       <c r="E24" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="14" t="s">
         <v>83</v>
       </c>
       <c r="H24" s="4" t="s">
@@ -1719,33 +1727,45 @@
         <v>1</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="F25" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="3:8" s="17" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="18">
+    <row r="26" spans="3:8" s="12" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="13">
         <v>42637</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-    </row>
-    <row r="27" spans="3:8" s="17" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="18">
+      <c r="E26" s="14"/>
+      <c r="F26" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="3:8" s="12" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="13">
         <v>42638</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="3">
@@ -1755,8 +1775,12 @@
         <v>2</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="F28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1767,8 +1791,12 @@
         <v>3</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="F29" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1779,33 +1807,37 @@
         <v>4</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="F30" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="1">
+      <c r="C31" s="20">
         <v>42642</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="32" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="2">
+      <c r="C32" s="20">
         <v>42643</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1827,112 +1859,113 @@
   <dimension ref="B6:E12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="B7" s="24">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="25">
         <v>42622</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="B8" s="24">
         <v>1.2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="25">
         <v>42629</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="B9" s="24">
         <v>2.1</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="27">
         <v>42643</v>
       </c>
     </row>
-    <row r="10" spans="2:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="17">
+    <row r="10" spans="2:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="24">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="27">
         <v>42643</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="B11" s="24">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="27">
         <v>42643</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="B12" s="24">
         <v>2.4</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="28">
         <v>42643</v>
       </c>
     </row>
@@ -1948,450 +1981,451 @@
   <dimension ref="B2:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="107.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="12">
+      <c r="B3" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="29">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="30">
         <v>42615</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="29" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="12">
+      <c r="B4" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="29">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="30">
         <v>42615</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
+      <c r="B5" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="29">
         <v>3</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="30">
         <v>42615</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="29" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
+      <c r="B6" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="29">
         <v>4</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="30">
         <v>42615</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="29" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
+      <c r="B7" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="29">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="30">
         <v>42619</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
+      <c r="B8" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="29">
         <v>6</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="30">
         <v>42620</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
+      <c r="B9" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="29">
         <v>7</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="30">
         <v>42620</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
+      <c r="B10" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="29">
         <v>8</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="30">
         <v>42622</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="29" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="12">
+      <c r="B11" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="29">
         <v>9</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="30">
         <v>42622</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
+      <c r="B12" s="23">
         <v>1.2</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="29">
         <v>10</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="30">
         <v>42625</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
+      <c r="B13" s="23">
         <v>1.2</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="29">
         <v>11</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="30">
         <v>42627</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
+      <c r="B14" s="23">
         <v>1.2</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="29">
         <v>12</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="30">
         <v>42628</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="29" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
+      <c r="B15" s="23">
         <v>1.2</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="29">
         <v>13</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="30">
         <v>42628</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="12">
+      <c r="B16" s="23">
         <v>1.2</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="29">
         <v>14</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="30">
         <v>42629</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="29" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="12">
+      <c r="B17" s="23">
         <v>1.2</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="29">
         <v>15</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="30">
         <v>42629</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="12">
+      <c r="B19" s="23">
         <v>2.1</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="29">
         <v>15</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="34">
         <v>42635</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="29" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="12">
+      <c r="B20" s="23">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="29">
         <v>16</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="34">
         <v>42635</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="29" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="12">
+      <c r="B21" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="29">
         <v>17</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="34">
         <v>42635</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="29" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="12">
+      <c r="B22" s="23">
         <v>2.4</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="29">
         <v>18</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="34">
         <v>42635</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="29" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="12">
+      <c r="B23" s="23">
         <v>2.1</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="29">
         <v>19</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="34">
         <v>42637</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="29" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="12">
+      <c r="B24" s="23">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="29">
         <v>20</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="34">
         <v>42637</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="29" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="12">
+      <c r="B25" s="23">
         <v>2.4</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="29">
         <v>21</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="34">
         <v>42638</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="29" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="29">
         <v>22</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="34">
         <v>42638</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="29" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
+      <c r="D59" s="39" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
+      <c r="D60" s="39" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
+      <c r="D61" s="39" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
+      <c r="D62" s="39" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Scrum_Log_Book.xlsx
+++ b/Scrum_Log_Book.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takuya\Documents\Coventry\Rapid Application Development\Assignment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quekj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18135" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityLog" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="109">
   <si>
     <t>Thu</t>
   </si>
@@ -430,6 +430,42 @@
   </si>
   <si>
     <t>Scrum meeting to wrap up this project within the current week. Adjust and finalise UI design format. Try to add computation logic between current location and taxi locations but not successful.</t>
+  </si>
+  <si>
+    <t>Review of Google App Engine Code on Showing Taxi Location</t>
+  </si>
+  <si>
+    <t>Managed to implement showing taxi location on a Second map by looping through the taxi location from the JSON file</t>
+  </si>
+  <si>
+    <t>Created Git Account to access and share progress.</t>
+  </si>
+  <si>
+    <t>Tried to add a distance calculator API from google map to calculate distance between user and all taxis but was not successful.</t>
+  </si>
+  <si>
+    <t>Updated SCRUM master on the project progress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on code to present both Taxi Locations and Current User location to a single map. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successfully integrated both Taxi Locations and Current User location to a single map. Uploaded code to Git for sharing among team members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New requirement to change icon of taxi. Research and review of code for implementation. </t>
+  </si>
+  <si>
+    <t>Managed to changed icon of all taxi location by retreiving image from web in PNG format to differentiate between current user's and taxi's.</t>
+  </si>
+  <si>
+    <t>Review UI design and submitted updated code to Git.</t>
+  </si>
+  <si>
+    <t>Remote session with Team to discuss about Git's features and usage.</t>
+  </si>
+  <si>
+    <t>Share examples of JSON and XML formats found online with team.</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1348,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>29</v>
@@ -1384,7 +1420,9 @@
       <c r="D5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F5" s="11" t="s">
         <v>52</v>
       </c>
@@ -1400,7 +1438,9 @@
       <c r="D6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="F6" s="11" t="s">
         <v>51</v>
       </c>
@@ -1418,8 +1458,8 @@
       <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>29</v>
+      <c r="E7" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>29</v>
@@ -1438,7 +1478,9 @@
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="F8" s="11" t="s">
         <v>30</v>
       </c>
@@ -1456,7 +1498,9 @@
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F9" s="11" t="s">
         <v>31</v>
       </c>
@@ -1472,7 +1516,9 @@
       <c r="D10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="F10" s="18" t="s">
         <v>33</v>
       </c>
@@ -1488,7 +1534,9 @@
       <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="F11" s="11" t="s">
         <v>34</v>
       </c>
@@ -1504,7 +1552,9 @@
       <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="F12" s="11" t="s">
         <v>52</v>
       </c>
@@ -1520,7 +1570,9 @@
       <c r="D13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="F13" s="11" t="s">
         <v>52</v>
       </c>
@@ -1536,7 +1588,9 @@
       <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F14" s="11" t="s">
         <v>35</v>
       </c>
@@ -1552,7 +1606,9 @@
       <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F15" s="11" t="s">
         <v>32</v>
       </c>
@@ -1568,7 +1624,9 @@
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F16" s="11" t="s">
         <v>32</v>
       </c>
@@ -1622,7 +1680,9 @@
       <c r="D19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="F19" s="11" t="s">
         <v>52</v>
       </c>
@@ -1638,7 +1698,9 @@
       <c r="D20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="F20" s="11" t="s">
         <v>52</v>
       </c>
@@ -1674,7 +1736,9 @@
       <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F22" s="11" t="s">
         <v>89</v>
       </c>
@@ -1690,7 +1754,9 @@
       <c r="D23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F23" s="11" t="s">
         <v>52</v>
       </c>
@@ -1726,7 +1792,9 @@
       <c r="D25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="F25" s="11" t="s">
         <v>89</v>
       </c>
@@ -1742,7 +1810,9 @@
       <c r="D26" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="F26" s="11" t="s">
         <v>89</v>
       </c>
@@ -1758,7 +1828,9 @@
       <c r="D27" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="14"/>
+      <c r="E27" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="F27" s="11" t="s">
         <v>89</v>
       </c>
@@ -1774,7 +1846,9 @@
       <c r="D28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="F28" s="11" t="s">
         <v>90</v>
       </c>
@@ -1790,7 +1864,9 @@
       <c r="D29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F29" s="11" t="s">
         <v>92</v>
       </c>
@@ -1806,7 +1882,9 @@
       <c r="D30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="F30" s="11" t="s">
         <v>91</v>
       </c>
@@ -1860,7 +1938,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,7 +2060,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Scrum_Log_Book.xlsx
+++ b/Scrum_Log_Book.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quekj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takuya\Documents\Coventry\Rapid Application Development\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="122">
   <si>
     <t>Thu</t>
   </si>
@@ -279,30 +279,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Scrum Master</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Reviewing of lecture notes on JSON and XML coding format</t>
-    </r>
-  </si>
-  <si>
     <t>Kayen (Developer -&gt; Developer)</t>
   </si>
   <si>
@@ -467,6 +443,68 @@
   <si>
     <t>Share examples of JSON and XML formats found online with team.</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scrum Master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Reviewing of lecture notes on JSON and XML coding format</t>
+    </r>
+  </si>
+  <si>
+    <t>Follow up with Team Members on progress,problems faced and ways to facilitate the progress of the project</t>
+  </si>
+  <si>
+    <t>Review the scrum meeting and shared my views and confirmed decision of team of the completion of Sprint 1 and also to follow up on progress and future scope on the current progress</t>
+  </si>
+  <si>
+    <t>Follow up with Team Members on progress and difficulties showing current location and taxi on the same map( technical difficulties) offered suggestion and had discussion with team on helping developers</t>
+  </si>
+  <si>
+    <t>Made suggestions and test examples which could help the team and contribute to the current ideas to overcome problems currently facing with the displaying of map</t>
+  </si>
+  <si>
+    <t>Review current documentation, logbook and application progress and discussion with team on how we can progress on our current solutions</t>
+  </si>
+  <si>
+    <t>Confirmed current progress and send email to lecturer with our current roles and progress and also made decisions for sprint 2 and handover current duties to next Scrum Master.</t>
+  </si>
+  <si>
+    <t>Did research on Dreamweaver to integrate our application to a web platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did test sites, and youtube search on modifying CSS and DIV for integration </t>
+  </si>
+  <si>
+    <t>Came up with final UI Web Design template and was able to show HTML only, problems with integrating into google app engine.</t>
+  </si>
+  <si>
+    <t>Integration with Google App Engine and prototype was created for team to review</t>
+  </si>
+  <si>
+    <t>Showed team during discussion final design output</t>
+  </si>
+  <si>
+    <t>Shared with team on how my integration and use of dreamweaver was contributing to my web designs and explained limitations of my design</t>
+  </si>
+  <si>
+    <t>Found more information on web hosting and legal implications and discussed with team on few final UI Touch ups and Legend Signs</t>
+  </si>
 </sst>
 </file>
 
@@ -475,7 +513,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +557,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1348,7 +1393,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,16 +1406,16 @@
   <sheetData>
     <row r="2" spans="3:8" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1389,8 +1434,8 @@
       <c r="G3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>60</v>
+      <c r="H3" s="15" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1401,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>29</v>
@@ -1409,7 +1454,7 @@
       <c r="G4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1429,7 +1474,9 @@
       <c r="G5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="14" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="6" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
@@ -1439,7 +1486,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>51</v>
@@ -1447,7 +1494,7 @@
       <c r="G6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1467,7 +1514,7 @@
       <c r="G7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1487,7 +1534,7 @@
       <c r="G8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1507,7 +1554,9 @@
       <c r="G9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
@@ -1525,7 +1574,9 @@
       <c r="G10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="14" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="11" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
@@ -1535,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>34</v>
@@ -1543,7 +1594,9 @@
       <c r="G11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
@@ -1553,7 +1606,7 @@
         <v>49</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>52</v>
@@ -1561,7 +1614,9 @@
       <c r="G12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
@@ -1579,7 +1634,9 @@
       <c r="G13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="14" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="14" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
@@ -1589,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>35</v>
@@ -1597,7 +1654,9 @@
       <c r="G14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
@@ -1615,7 +1674,9 @@
       <c r="G15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="14" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="16" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
@@ -1633,7 +1694,9 @@
       <c r="G16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="14" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="17" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
@@ -1651,7 +1714,9 @@
       <c r="G17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="14" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="18" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
@@ -1661,16 +1726,16 @@
         <v>1</v>
       </c>
       <c r="E18" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="G18" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>67</v>
-      </c>
       <c r="H18" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1681,7 +1746,7 @@
         <v>49</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>52</v>
@@ -1689,7 +1754,9 @@
       <c r="G19" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="14" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="20" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
@@ -1699,7 +1766,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>52</v>
@@ -1707,7 +1774,9 @@
       <c r="G20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="14" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="21" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
@@ -1717,16 +1786,16 @@
         <v>2</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1740,12 +1809,14 @@
         <v>52</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="23" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
@@ -1763,7 +1834,9 @@
       <c r="G23" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="24" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
@@ -1773,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1793,15 +1866,17 @@
         <v>1</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="26" spans="3:8" s="12" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="13">
@@ -1811,15 +1886,17 @@
         <v>49</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="14"/>
+      <c r="H26" s="14" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="27" spans="3:8" s="12" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="13">
@@ -1829,15 +1906,17 @@
         <v>50</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="28" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="3">
@@ -1847,15 +1926,17 @@
         <v>2</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H28" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="29" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
@@ -1868,12 +1949,14 @@
         <v>52</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H29" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="30" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
@@ -1883,15 +1966,17 @@
         <v>4</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H30" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="31" spans="3:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="20">
@@ -1938,7 +2023,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,7 +2036,7 @@
   <sheetData>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>8</v>
@@ -1996,10 +2081,10 @@
         <v>2.1</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="27">
         <v>42643</v>
@@ -2010,10 +2095,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C10" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>71</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>72</v>
       </c>
       <c r="E10" s="27">
         <v>42643</v>
@@ -2024,10 +2109,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" s="27">
         <v>42643</v>
@@ -2074,7 +2159,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>37</v>
@@ -2359,7 +2444,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="34">
         <v>42635</v>
@@ -2376,7 +2461,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" s="34">
         <v>42635</v>
@@ -2393,13 +2478,13 @@
         <v>17</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" s="34">
         <v>42635</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -2410,13 +2495,13 @@
         <v>18</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="34">
         <v>42635</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -2427,7 +2512,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="34">
         <v>42637</v>
@@ -2444,7 +2529,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E24" s="34">
         <v>42637</v>
@@ -2461,24 +2546,24 @@
         <v>21</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="34">
         <v>42638</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="29">
         <v>22</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="34">
         <v>42638</v>
